--- a/biology/Botanique/Acmella_caulirhiza/Acmella_caulirhiza.xlsx
+++ b/biology/Botanique/Acmella_caulirhiza/Acmella_caulirhiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acmella caulirhiza est une espèce de plantes à fleurs du genre Acmella et de la famille des Asteraceae[2],[3]. Elle a été décrite par Delile. Elle est utilisée comme plante médicinale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acmella caulirhiza est une espèce de plantes à fleurs du genre Acmella et de la famille des Asteraceae,. Elle a été décrite par Delile. Elle est utilisée comme plante médicinale.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eclipta filicaulis Schumach. &amp; Thonn.
  Spilanthes abyssinica Sch.Bip. ex A.Rich.
@@ -545,9 +559,11 @@
           <t>Utilisation médicinale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs de Acmella caulirhiza sont mâchées et crachées sur les amygdales en Afrique de l’est comme traitement contre l’amygdalite[4]. Les feuilles fraîches de Dichrocephala integrifolia associées à Acmella caulirhiza sont utilisées pour traiter le paludisme[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs de Acmella caulirhiza sont mâchées et crachées sur les amygdales en Afrique de l’est comme traitement contre l’amygdalite. Les feuilles fraîches de Dichrocephala integrifolia associées à Acmella caulirhiza sont utilisées pour traiter le paludisme.
 </t>
         </is>
       </c>
